--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007012</t>
+          <t>000612</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>湘财长顺混合A</t>
+          <t>华宝生态中国混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.06</t>
+          <t>4.35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007013</t>
+          <t>007012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>湘财长顺混合C</t>
+          <t>湘财长顺混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000612</t>
+          <t>008128</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华宝生态中国混合</t>
+          <t>湘财长源股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.59</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>89.37</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>7</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008128</t>
+          <t>290012</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>湘财长源股票A</t>
+          <t>泰信行业精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008129</t>
+          <t>002634</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>湘财长源股票C</t>
+          <t>华宝未来主导产业灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.99</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002583</t>
+          <t>007013</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合C</t>
+          <t>湘财长顺混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>8</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002634</t>
+          <t>008129</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝未来主导产业灵活配置混合</t>
+          <t>湘财长源股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.48</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,33 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>290012</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>泰信行业精选灵活配置混合A</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>93.47</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -749,7 +847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +868,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -800,15 +908,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>5.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -826,17 +944,21 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>5.92</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -944,7 +945,6 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>94.09</t>
@@ -959,6 +959,174 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1133,4 +1134,134 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1264,4 +1265,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1273,7 +1274,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1284,17 +1285,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1304,14 +1325,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1320,14 +1363,102 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -1336,14 +1467,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -1352,13 +1483,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1404,7 +1405,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1415,17 +1416,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1435,14 +1456,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1451,7 +1494,95 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -1467,14 +1598,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
@@ -1483,14 +1614,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -1499,13 +1630,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1535,7 +1536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,17 +1547,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1566,14 +1587,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -1582,14 +1625,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -1598,7 +1731,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -1614,14 +1747,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -1630,14 +1763,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
@@ -1646,13 +1779,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,393 +457,145 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0691</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
+      <c r="D6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -874,7 +626,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -914,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0385</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -950,21 +702,28 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.92</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +737,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -999,7 +758,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1039,26 +798,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.33</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.09</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0351</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1067,72 +826,34 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>002583</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.54</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0288</t>
-        </is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>90.33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +888,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1207,26 +928,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1250,19 +971,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1297,7 +1018,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1337,26 +1058,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0330</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1380,19 +1101,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>91.91</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1427,7 +1148,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1467,26 +1188,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0351</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1495,34 +1216,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>002583</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="n">
-        <v>9</v>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1557,7 +1316,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1597,26 +1356,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0385</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1633,28 +1392,21 @@
           <t>泰信行业精选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1668,144 +1420,392 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.03</v>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.03</v>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.06</v>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.04</v>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>9</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.4</v>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +537,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.4</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -798,26 +815,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -836,24 +853,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -928,26 +947,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -971,19 +990,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1018,7 +1037,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1058,26 +1077,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1101,19 +1120,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1122,6 +1141,136 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1289,7 +1438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1414,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
+++ b/数据整理/stocks/A股/上证主板/603103-横店影视.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -553,7 +554,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,430 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000612</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝生态中国混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007590</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝绿色领先股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0432</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -683,26 +1096,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0404</t>
+          <t>0.0572</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -721,26 +1134,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>92.06</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0022</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -815,26 +1228,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0514</t>
+          <t>0.0404</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -853,26 +1266,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.01</t>
+          <t>91.96</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.98</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0022</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -947,26 +1360,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.98</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0391</t>
+          <t>0.0514</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -985,24 +1398,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>93.01</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1077,26 +1492,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0337</t>
+          <t>0.0391</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1120,19 +1535,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.35</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.15</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1582,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1207,26 +1622,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0337</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1250,19 +1665,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.91</t>
+          <t>94.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>5.03</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1271,6 +1686,136 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>290012</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002583</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰信行业精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1438,7 +1983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1561,400 +2106,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000612</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华宝生态中国混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007012</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>湘财长顺混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0691</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>008128</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>湘财长源股票A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0506</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007590</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华宝绿色领先股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.37</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0432</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>290012</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0371</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002634</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝未来主导产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>91.48</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>007013</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>湘财长顺混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.06</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>008129</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>湘财长源股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002583</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>泰信行业精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>